--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2808769586085731</v>
+        <v>9.2808769583837485</v>
       </c>
       <c r="C2">
-        <v>12.177793441346886</v>
+        <v>12.177793440983255</v>
       </c>
       <c r="D2">
-        <v>16.93846850056331</v>
+        <v>16.938468496739613</v>
       </c>
       <c r="E2">
-        <v>9.9037048403594508</v>
+        <v>9.9037048425882901</v>
       </c>
       <c r="F2">
-        <v>9.0106324507857796</v>
+        <v>9.0106324548052434</v>
       </c>
       <c r="G2">
-        <v>11.019768848131854</v>
+        <v>11.019768852761501</v>
       </c>
       <c r="H2">
-        <v>15.06295139760474</v>
+        <v>15.062951395815798</v>
       </c>
       <c r="I2">
-        <v>15.457626224159711</v>
+        <v>15.457626230539486</v>
       </c>
       <c r="J2">
-        <v>14.055924609779851</v>
+        <v>14.055924609877531</v>
       </c>
       <c r="K2">
-        <v>12.576863189368609</v>
+        <v>12.576863182356156</v>
       </c>
       <c r="L2">
-        <v>19.276190903775777</v>
+        <v>19.276190894825859</v>
       </c>
       <c r="M2">
-        <v>8.5484016856538734</v>
+        <v>8.5484016809363492</v>
       </c>
       <c r="N2">
-        <v>15.086958736679062</v>
+        <v>15.086958737400803</v>
       </c>
       <c r="O2">
-        <v>10.787023792729963</v>
+        <v>10.787023792862547</v>
       </c>
       <c r="P2">
-        <v>20.204012458639756</v>
+        <v>20.204012456308131</v>
       </c>
       <c r="Q2">
-        <v>14.574835512679133</v>
+        <v>14.574835510392965</v>
       </c>
       <c r="R2">
-        <v>15.393399527930955</v>
+        <v>15.393399526523226</v>
       </c>
       <c r="S2">
-        <v>13.958641084765436</v>
+        <v>13.958641071356535</v>
       </c>
       <c r="T2">
-        <v>16.590545821450561</v>
+        <v>16.590545837316451</v>
       </c>
       <c r="U2">
-        <v>12.949965173021894</v>
+        <v>12.949965173524316</v>
       </c>
       <c r="V2">
-        <v>20.03901566571389</v>
+        <v>20.03901565920912</v>
       </c>
       <c r="W2">
-        <v>21.040312408620835</v>
+        <v>21.040312411074815</v>
       </c>
       <c r="X2">
-        <v>14.054277238740038</v>
+        <v>14.054277234910867</v>
       </c>
       <c r="Y2">
-        <v>10.056920945057406</v>
+        <v>10.056920948373795</v>
       </c>
       <c r="Z2">
-        <v>16.025290903214859</v>
+        <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>10.993434269315596</v>
+        <v>10.993434271912003</v>
       </c>
       <c r="AB2">
-        <v>15.663610242430464</v>
+        <v>15.66361024826924</v>
       </c>
       <c r="AC2">
-        <v>15.888145151273772</v>
+        <v>15.888145153154063</v>
       </c>
       <c r="AD2">
-        <v>10.896554462488083</v>
+        <v>10.896554477519947</v>
       </c>
       <c r="AE2">
-        <v>11.051834334792037</v>
+        <v>11.051834341049961</v>
       </c>
       <c r="AF2">
-        <v>14.372992291850032</v>
+        <v>14.372992293154676</v>
       </c>
       <c r="AG2">
-        <v>8.9195968262657175</v>
+        <v>8.9195968389209952</v>
       </c>
       <c r="AH2">
-        <v>16.239450428506416</v>
+        <v>16.239450434238492</v>
       </c>
       <c r="AI2">
-        <v>14.824563891551952</v>
+        <v>14.824563888777202</v>
       </c>
       <c r="AJ2">
-        <v>20.801377775497325</v>
+        <v>20.801377788599762</v>
       </c>
       <c r="AK2">
-        <v>15.320173689359926</v>
+        <v>15.320173696721554</v>
       </c>
       <c r="AL2">
-        <v>7.6079147562098974</v>
+        <v>7.6079147591485352</v>
       </c>
       <c r="AM2">
-        <v>15.923135860486536</v>
+        <v>15.923135859821482</v>
       </c>
       <c r="AN2">
-        <v>8.7728464348189519</v>
+        <v>8.7728464407593894</v>
       </c>
       <c r="AO2">
-        <v>21.078552682089736</v>
+        <v>21.078552680864469</v>
       </c>
       <c r="AP2">
-        <v>15.845713185828762</v>
+        <v>15.845713188770166</v>
       </c>
       <c r="AQ2">
-        <v>14.26911593146383</v>
+        <v>14.269115938797395</v>
       </c>
       <c r="AR2">
-        <v>9.9633713718733894</v>
+        <v>9.9633713785144682</v>
       </c>
       <c r="AS2">
-        <v>14.646894606072712</v>
+        <v>14.646894604118966</v>
       </c>
       <c r="AT2">
-        <v>6.7962093245287374</v>
+        <v>6.7962093264295032</v>
       </c>
       <c r="AU2">
-        <v>17.59557150038443</v>
+        <v>17.595571502626647</v>
       </c>
       <c r="AV2">
-        <v>16.796900811803923</v>
+        <v>16.796900815011092</v>
       </c>
       <c r="AW2">
-        <v>18.870041146367782</v>
+        <v>18.870041151696768</v>
       </c>
       <c r="AX2">
-        <v>8.0184437571166249</v>
+        <v>8.0184437568072529</v>
       </c>
       <c r="AY2">
-        <v>16.042814675064829</v>
+        <v>16.042814679493016</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.892096184346521</v>
+        <v>11.892096187074591</v>
       </c>
       <c r="C3">
-        <v>13.874546484432607</v>
+        <v>13.874546483743259</v>
       </c>
       <c r="D3">
-        <v>13.159004415676584</v>
+        <v>13.159004414656227</v>
       </c>
       <c r="E3">
-        <v>6.360286896417584</v>
+        <v>6.3602869057119973</v>
       </c>
       <c r="F3">
-        <v>17.084346092937636</v>
+        <v>17.084346095294443</v>
       </c>
       <c r="G3">
-        <v>10.909497734135421</v>
+        <v>10.909497735884772</v>
       </c>
       <c r="H3">
-        <v>10.188539293135811</v>
+        <v>10.188539296680883</v>
       </c>
       <c r="I3">
-        <v>11.929876658376138</v>
+        <v>11.929876658281259</v>
       </c>
       <c r="J3">
-        <v>8.5272742119745182</v>
+        <v>8.5272742155615386</v>
       </c>
       <c r="K3">
-        <v>7.8222361611611362</v>
+        <v>7.8222361697320748</v>
       </c>
       <c r="L3">
-        <v>13.958917260204464</v>
+        <v>13.958917267852971</v>
       </c>
       <c r="M3">
-        <v>9.0816153899165908</v>
+        <v>9.0813900654357607</v>
       </c>
       <c r="N3">
-        <v>13.121846355076535</v>
+        <v>13.121846357517555</v>
       </c>
       <c r="O3">
-        <v>13.751314944852023</v>
+        <v>13.751314949569188</v>
       </c>
       <c r="P3">
-        <v>16.056859591108186</v>
+        <v>16.05685959403629</v>
       </c>
       <c r="Q3">
-        <v>13.938947444389445</v>
+        <v>13.938947436084732</v>
       </c>
       <c r="R3">
-        <v>15.880770945010223</v>
+        <v>15.880770946837549</v>
       </c>
       <c r="S3">
-        <v>14.75538776445298</v>
+        <v>14.75538775853749</v>
       </c>
       <c r="T3">
-        <v>15.557420553516543</v>
+        <v>15.557420554364365</v>
       </c>
       <c r="U3">
-        <v>14.382208535768701</v>
+        <v>14.382208534403578</v>
       </c>
       <c r="V3">
-        <v>20.918062457793663</v>
+        <v>20.918062460490923</v>
       </c>
       <c r="W3">
-        <v>18.83434960878715</v>
+        <v>18.834349607242444</v>
       </c>
       <c r="X3">
-        <v>15.479837032552147</v>
+        <v>15.47983703244765</v>
       </c>
       <c r="Y3">
-        <v>10.448685219979801</v>
+        <v>10.448685231213799</v>
       </c>
       <c r="Z3">
-        <v>13.038328895532288</v>
+        <v>13.038328896838081</v>
       </c>
       <c r="AA3">
-        <v>13.219885912850788</v>
+        <v>13.219885914330117</v>
       </c>
       <c r="AB3">
-        <v>6.8966396878021241</v>
+        <v>6.8966396931842375</v>
       </c>
       <c r="AC3">
-        <v>10.132908515228632</v>
+        <v>10.132908515926067</v>
       </c>
       <c r="AD3">
-        <v>7.2795205031239547</v>
+        <v>7.2795205015183591</v>
       </c>
       <c r="AE3">
-        <v>13.353187056195786</v>
+        <v>13.353187058221177</v>
       </c>
       <c r="AF3">
-        <v>9.1910602078314767</v>
+        <v>9.1910602141898536</v>
       </c>
       <c r="AG3">
-        <v>15.957601241942383</v>
+        <v>15.957601240344651</v>
       </c>
       <c r="AH3">
-        <v>7.1146782299712612</v>
+        <v>7.1146782313397683</v>
       </c>
       <c r="AI3">
-        <v>4.7936928479376153</v>
+        <v>4.7936928476941887</v>
       </c>
       <c r="AJ3">
-        <v>10.330558408858368</v>
+        <v>10.330558405323547</v>
       </c>
       <c r="AK3">
-        <v>9.8344056158582696</v>
+        <v>9.834405625888671</v>
       </c>
       <c r="AL3">
-        <v>13.566341541089885</v>
+        <v>13.56634153976621</v>
       </c>
       <c r="AM3">
-        <v>12.754086137465409</v>
+        <v>12.754086142636629</v>
       </c>
       <c r="AN3">
-        <v>15.435661461101507</v>
+        <v>15.435661466252544</v>
       </c>
       <c r="AO3">
-        <v>13.828938022512611</v>
+        <v>13.828938030610836</v>
       </c>
       <c r="AP3">
-        <v>12.776557651896745</v>
+        <v>12.776557659203929</v>
       </c>
       <c r="AQ3">
-        <v>17.800217854512258</v>
+        <v>17.800217867232298</v>
       </c>
       <c r="AR3">
-        <v>13.689242752207358</v>
+        <v>13.689242752334534</v>
       </c>
       <c r="AS3">
-        <v>17.203266906417198</v>
+        <v>17.203266908276213</v>
       </c>
       <c r="AT3">
-        <v>13.273428877605635</v>
+        <v>13.273428879013778</v>
       </c>
       <c r="AU3">
-        <v>22.059472761650639</v>
+        <v>22.0594727616391</v>
       </c>
       <c r="AV3">
-        <v>14.335686956196568</v>
+        <v>14.33568696374024</v>
       </c>
       <c r="AW3">
-        <v>9.9637966807011225</v>
+        <v>9.9637966879425583</v>
       </c>
       <c r="AX3">
-        <v>19.251559423172324</v>
+        <v>19.251559420781582</v>
       </c>
       <c r="AY3">
-        <v>11.675595523416641</v>
+        <v>11.675595516656333</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.2808769583837485</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.177793440983255</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16.938468496739613</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.9037048425882901</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.0106324548052434</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.019768852761501</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15.062951395815798</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.457626230539486</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.055924609877531</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.576863182356156</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>19.276190894825859</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.5484016809363492</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.086958737400803</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.787023792862547</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.204012456308131</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.574835510392965</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.393399526523226</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.958641071356535</v>
+        <v>15.758046069482663</v>
       </c>
       <c r="T2">
         <v>16.590545837316451</v>
@@ -588,55 +477,55 @@
         <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>10.993434271912003</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.66361024826924</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>15.888145153154063</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>10.896554477519947</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.051834341049961</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.372992293154676</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.9195968389209952</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>16.239450434238492</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>14.824563888777202</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.801377788599762</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>15.320173696721554</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.6079147591485352</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.923135859821482</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.7728464407593894</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>21.078552680864469</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.845713188770166</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>14.269115938797395</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>9.9633713785144682</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>11.892096187074591</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.874546483743259</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.159004414656227</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.3602869057119973</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.084346095294443</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.909497735884772</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.188539296680883</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.929876658281259</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.5272742155615386</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.8222361697320748</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.958917267852971</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.0813900654357607</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.121846357517555</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.751314949569188</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.05685959403629</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.938947436084732</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.880770946837549</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.75538775853749</v>
@@ -743,55 +629,55 @@
         <v>13.038328896838081</v>
       </c>
       <c r="AA3">
-        <v>13.219885914330117</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6.8966396931842375</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.132908515926067</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.2795205015183591</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.353187058221177</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.1910602141898536</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.957601240344651</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.1146782313397683</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.7936928476941887</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>10.330558405323547</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>9.834405625888671</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.56634153976621</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>12.754086142636629</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.435661466252544</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.828938030610836</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.776557659203929</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.800217867232298</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.689242752334534</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2808769586085731</v>
+        <v>10.787023792862547</v>
       </c>
       <c r="C2">
-        <v>13.00500009110409</v>
+        <v>15.393399526523226</v>
       </c>
       <c r="D2">
-        <v>16.93846850056331</v>
+        <v>8.7728464407593894</v>
       </c>
       <c r="E2">
-        <v>9.9037048403594508</v>
+        <v>14.269115938797395</v>
       </c>
       <c r="F2">
         <v>9.0106324507857796</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.892096184346521</v>
+        <v>13.299741894026944</v>
       </c>
       <c r="C3">
-        <v>13.874546484432607</v>
+        <v>15.880770946837549</v>
       </c>
       <c r="D3">
-        <v>13.159004415676584</v>
+        <v>15.748702774842679</v>
       </c>
       <c r="E3">
-        <v>6.360286896417584</v>
+        <v>15.504003619947063</v>
       </c>
       <c r="F3">
         <v>17.084346092937636</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.2808769586085731</v>
+        <v>15.458725709495777</v>
       </c>
       <c r="C2">
-        <v>13.00500009110409</v>
+        <v>10.787023792862547</v>
       </c>
       <c r="D2">
-        <v>16.93846850056331</v>
+        <v>15.923135859821482</v>
       </c>
       <c r="E2">
-        <v>9.9037048403594508</v>
+        <v>8.7728464407593894</v>
       </c>
       <c r="F2">
         <v>9.0106324507857796</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.892096184346521</v>
+        <v>13.121846357517555</v>
       </c>
       <c r="C3">
-        <v>13.874546484432607</v>
+        <v>13.299741894026944</v>
       </c>
       <c r="D3">
-        <v>13.159004415676584</v>
+        <v>12.754086142636629</v>
       </c>
       <c r="E3">
-        <v>5.2208078990820921</v>
+        <v>15.748702774842679</v>
       </c>
       <c r="F3">
         <v>17.084346092937636</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.2808769583837485</v>
+      </c>
+      <c r="C2">
+        <v>13.005000091697351</v>
+      </c>
+      <c r="D2">
+        <v>16.938468496739613</v>
+      </c>
+      <c r="E2">
+        <v>9.9037048425882901</v>
+      </c>
+      <c r="F2">
+        <v>9.0106324548052434</v>
+      </c>
+      <c r="G2">
+        <v>9.4280184148498147</v>
+      </c>
+      <c r="H2">
+        <v>15.062951395815798</v>
+      </c>
+      <c r="I2">
+        <v>14.339322946919276</v>
+      </c>
+      <c r="J2">
+        <v>14.055924609877531</v>
+      </c>
+      <c r="K2">
+        <v>12.576863182356156</v>
+      </c>
+      <c r="L2">
+        <v>19.525036763650014</v>
+      </c>
+      <c r="M2">
+        <v>9.1163576043499539</v>
+      </c>
+      <c r="N2">
         <v>15.458725709495777</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.787023792862547</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.240213562521504</v>
+      </c>
+      <c r="Q2">
+        <v>14.574835510392965</v>
+      </c>
+      <c r="R2">
+        <v>15.393399526523226</v>
+      </c>
+      <c r="T2">
+        <v>16.6849941406428</v>
+      </c>
+      <c r="U2">
+        <v>12.949965173524316</v>
+      </c>
+      <c r="V2">
+        <v>18.862581818163175</v>
+      </c>
+      <c r="W2">
+        <v>21.040312411074815</v>
+      </c>
+      <c r="X2">
+        <v>14.054277234910867</v>
+      </c>
+      <c r="Y2">
+        <v>10.056920948373795</v>
+      </c>
+      <c r="Z2">
+        <v>16.025290903502118</v>
+      </c>
+      <c r="AA2">
+        <v>10.993434271912003</v>
+      </c>
+      <c r="AB2">
+        <v>15.66361024826924</v>
+      </c>
+      <c r="AC2">
+        <v>15.888145153154063</v>
+      </c>
+      <c r="AD2">
+        <v>10.896554477519947</v>
+      </c>
+      <c r="AE2">
+        <v>11.051834341049961</v>
+      </c>
+      <c r="AF2">
+        <v>14.372992293154676</v>
+      </c>
+      <c r="AG2">
+        <v>8.9195968389209952</v>
+      </c>
+      <c r="AH2">
+        <v>16.239450434238492</v>
+      </c>
+      <c r="AI2">
+        <v>14.824563888777202</v>
+      </c>
+      <c r="AJ2">
+        <v>20.801377788599762</v>
+      </c>
+      <c r="AK2">
+        <v>15.320173696721554</v>
+      </c>
+      <c r="AL2">
+        <v>7.6079147591485352</v>
+      </c>
+      <c r="AM2">
         <v>15.923135859821482</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>8.7728464407593894</v>
       </c>
-      <c r="F2">
-        <v>9.0106324507857796</v>
-      </c>
-      <c r="G2">
-        <v>9.4280184069254034</v>
-      </c>
-      <c r="H2">
-        <v>15.06295139760474</v>
-      </c>
-      <c r="I2">
-        <v>14.339322937861649</v>
-      </c>
-      <c r="J2">
-        <v>14.055924609779851</v>
-      </c>
-      <c r="K2">
-        <v>12.576863189368609</v>
-      </c>
-      <c r="L2">
-        <v>19.525036766461113</v>
-      </c>
-      <c r="M2">
-        <v>9.1163576137510667</v>
-      </c>
-      <c r="N2">
-        <v>15.45872570860792</v>
-      </c>
-      <c r="O2">
-        <v>10.787023792729963</v>
-      </c>
-      <c r="P2">
-        <v>20.240213563527295</v>
-      </c>
-      <c r="Q2">
-        <v>14.574835512679133</v>
-      </c>
-      <c r="R2">
-        <v>15.393399527930955</v>
-      </c>
-      <c r="T2">
-        <v>16.684994123370977</v>
-      </c>
-      <c r="U2">
-        <v>12.949965173021894</v>
-      </c>
-      <c r="V2">
-        <v>18.862581837969401</v>
-      </c>
-      <c r="W2">
-        <v>21.040312408620835</v>
-      </c>
-      <c r="X2">
-        <v>14.054277238740038</v>
-      </c>
-      <c r="Y2">
-        <v>10.056920945057406</v>
-      </c>
-      <c r="Z2">
-        <v>16.025290903214859</v>
-      </c>
-      <c r="AA2">
-        <v>10.993434269315596</v>
-      </c>
-      <c r="AB2">
-        <v>15.663610242430464</v>
-      </c>
-      <c r="AC2">
-        <v>15.888145151273772</v>
-      </c>
-      <c r="AD2">
-        <v>10.896554462488083</v>
-      </c>
-      <c r="AE2">
-        <v>11.051834334792037</v>
-      </c>
-      <c r="AF2">
-        <v>14.372992291850032</v>
-      </c>
-      <c r="AG2">
-        <v>8.9195968262657175</v>
-      </c>
-      <c r="AH2">
-        <v>16.239450428506416</v>
-      </c>
-      <c r="AI2">
-        <v>14.824563891551952</v>
-      </c>
-      <c r="AJ2">
-        <v>20.801377775497325</v>
-      </c>
-      <c r="AK2">
-        <v>15.320173689359926</v>
-      </c>
-      <c r="AL2">
-        <v>7.6079147562098974</v>
-      </c>
-      <c r="AM2">
-        <v>15.923135860486536</v>
-      </c>
-      <c r="AN2">
-        <v>8.7728464348189519</v>
-      </c>
       <c r="AO2">
-        <v>21.078552682089736</v>
+        <v>21.078552680864469</v>
       </c>
       <c r="AP2">
-        <v>15.423434015139655</v>
+        <v>15.423434011249066</v>
       </c>
       <c r="AQ2">
-        <v>14.26911593146383</v>
+        <v>14.269115938797395</v>
       </c>
       <c r="AR2">
-        <v>9.9633713718733894</v>
+        <v>9.9633713785144682</v>
       </c>
       <c r="AS2">
-        <v>14.646894606072712</v>
+        <v>14.646894604118966</v>
       </c>
       <c r="AT2">
-        <v>6.7962093245287374</v>
+        <v>6.7962093264295032</v>
       </c>
       <c r="AU2">
-        <v>20.327273571961335</v>
+        <v>20.327273580530058</v>
       </c>
       <c r="AV2">
-        <v>16.796900811803923</v>
+        <v>16.796900815011092</v>
       </c>
       <c r="AW2">
-        <v>18.870041146367782</v>
+        <v>18.870041151696768</v>
       </c>
       <c r="AX2">
-        <v>8.0184437571166249</v>
+        <v>8.0184437568072529</v>
       </c>
       <c r="AY2">
-        <v>16.042814675064829</v>
+        <v>16.042814679493016</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>11.892096187074591</v>
+      </c>
+      <c r="C3">
+        <v>13.874546483743259</v>
+      </c>
+      <c r="D3">
+        <v>13.159004414656227</v>
+      </c>
+      <c r="E3">
+        <v>5.220807909326834</v>
+      </c>
+      <c r="F3">
+        <v>17.084346095294443</v>
+      </c>
+      <c r="G3">
+        <v>10.909497735884772</v>
+      </c>
+      <c r="H3">
+        <v>10.188539296680883</v>
+      </c>
+      <c r="I3">
+        <v>11.929876658281259</v>
+      </c>
+      <c r="J3">
+        <v>8.5272742155615386</v>
+      </c>
+      <c r="K3">
+        <v>8.5591378001526444</v>
+      </c>
+      <c r="L3">
+        <v>13.958917267852971</v>
+      </c>
+      <c r="M3">
+        <v>10.65454692972288</v>
+      </c>
+      <c r="N3">
         <v>13.121846357517555</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.299741894026944</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.05685959403629</v>
+      </c>
+      <c r="Q3">
+        <v>13.938947436084732</v>
+      </c>
+      <c r="R3">
+        <v>15.880770946837549</v>
+      </c>
+      <c r="S3">
+        <v>14.75538775853749</v>
+      </c>
+      <c r="T3">
+        <v>15.557420554364365</v>
+      </c>
+      <c r="U3">
+        <v>14.382208534403578</v>
+      </c>
+      <c r="V3">
+        <v>20.610473282564925</v>
+      </c>
+      <c r="W3">
+        <v>18.834349607242444</v>
+      </c>
+      <c r="X3">
+        <v>15.47983703244765</v>
+      </c>
+      <c r="Y3">
+        <v>10.448685231213799</v>
+      </c>
+      <c r="Z3">
+        <v>13.038328896838081</v>
+      </c>
+      <c r="AA3">
+        <v>13.219885914330117</v>
+      </c>
+      <c r="AB3">
+        <v>6.8966396931842375</v>
+      </c>
+      <c r="AC3">
+        <v>10.132908515926067</v>
+      </c>
+      <c r="AD3">
+        <v>7.2795205015183591</v>
+      </c>
+      <c r="AE3">
+        <v>13.353187058221177</v>
+      </c>
+      <c r="AF3">
+        <v>9.1910602141898536</v>
+      </c>
+      <c r="AG3">
+        <v>15.957601240344651</v>
+      </c>
+      <c r="AH3">
+        <v>7.1146782313397683</v>
+      </c>
+      <c r="AI3">
+        <v>7.5413930647707534</v>
+      </c>
+      <c r="AJ3">
+        <v>10.330558405323547</v>
+      </c>
+      <c r="AK3">
+        <v>9.834405625888671</v>
+      </c>
+      <c r="AL3">
+        <v>13.56634153976621</v>
+      </c>
+      <c r="AM3">
         <v>12.754086142636629</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.748702774842679</v>
       </c>
-      <c r="F3">
-        <v>17.084346092937636</v>
-      </c>
-      <c r="G3">
-        <v>10.909497734135421</v>
-      </c>
-      <c r="H3">
-        <v>10.188539293135811</v>
-      </c>
-      <c r="I3">
-        <v>11.929876658376138</v>
-      </c>
-      <c r="J3">
-        <v>8.5272742119745182</v>
-      </c>
-      <c r="K3">
-        <v>8.5591377911305848</v>
-      </c>
-      <c r="L3">
-        <v>13.958917260204464</v>
-      </c>
-      <c r="M3">
-        <v>10.654779807720004</v>
-      </c>
-      <c r="N3">
-        <v>13.121846355076535</v>
-      </c>
-      <c r="O3">
-        <v>13.299741883004362</v>
-      </c>
-      <c r="P3">
-        <v>16.056859591108186</v>
-      </c>
-      <c r="Q3">
-        <v>13.938947444389445</v>
-      </c>
-      <c r="R3">
-        <v>15.880770945010223</v>
-      </c>
-      <c r="S3">
-        <v>14.75538776445298</v>
-      </c>
-      <c r="T3">
-        <v>15.557420553516543</v>
-      </c>
-      <c r="U3">
-        <v>14.382208535768701</v>
-      </c>
-      <c r="V3">
-        <v>20.610473269479851</v>
-      </c>
-      <c r="W3">
-        <v>18.83434960878715</v>
-      </c>
-      <c r="X3">
-        <v>15.479837032552147</v>
-      </c>
-      <c r="Y3">
-        <v>10.448685219979801</v>
-      </c>
-      <c r="Z3">
-        <v>13.038328895532288</v>
-      </c>
-      <c r="AA3">
-        <v>13.219885912850788</v>
-      </c>
-      <c r="AB3">
-        <v>6.8966396878021241</v>
-      </c>
-      <c r="AC3">
-        <v>10.132908515228632</v>
-      </c>
-      <c r="AD3">
-        <v>7.2795205031239547</v>
-      </c>
-      <c r="AE3">
-        <v>13.353187056195786</v>
-      </c>
-      <c r="AF3">
-        <v>9.1910602078314767</v>
-      </c>
-      <c r="AG3">
-        <v>15.957601241942383</v>
-      </c>
-      <c r="AH3">
-        <v>7.1146782299712612</v>
-      </c>
-      <c r="AI3">
-        <v>7.5413930679618728</v>
-      </c>
-      <c r="AJ3">
-        <v>10.330558408858368</v>
-      </c>
-      <c r="AK3">
-        <v>9.8344056158582696</v>
-      </c>
-      <c r="AL3">
-        <v>13.566341541089885</v>
-      </c>
-      <c r="AM3">
-        <v>12.754086137465409</v>
-      </c>
-      <c r="AN3">
-        <v>15.748702767679713</v>
-      </c>
       <c r="AO3">
-        <v>13.828938022512611</v>
+        <v>13.828938030610836</v>
       </c>
       <c r="AP3">
-        <v>12.776557651896745</v>
+        <v>12.776557659203929</v>
       </c>
       <c r="AQ3">
-        <v>15.504003617932632</v>
+        <v>15.504003619947063</v>
       </c>
       <c r="AR3">
-        <v>13.689242752207358</v>
+        <v>13.689242752334534</v>
       </c>
       <c r="AS3">
-        <v>17.203266906417198</v>
+        <v>17.203266908276213</v>
       </c>
       <c r="AT3">
-        <v>13.273428877605635</v>
+        <v>13.273428879013778</v>
       </c>
       <c r="AU3">
-        <v>21.092729448142308</v>
+        <v>21.092729446672106</v>
       </c>
       <c r="AV3">
-        <v>14.335686956196568</v>
+        <v>14.33568696374024</v>
       </c>
       <c r="AW3">
-        <v>9.9637966807011225</v>
+        <v>9.9637966879425583</v>
       </c>
       <c r="AX3">
-        <v>19.251559423172324</v>
+        <v>19.251559420781582</v>
       </c>
       <c r="AY3">
-        <v>11.675595523416641</v>
+        <v>11.675595516656333</v>
       </c>
     </row>
   </sheetData>
